--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView windowHeight="17730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>group</t>
   </si>
@@ -256,7 +256,7 @@
     <t>5. Data provável do parto pre-calculada</t>
   </si>
   <si>
-    <t>call:calculateEdd(${eddDate}, ${lmpDate},${pregMonths})</t>
+    <t>call:calculateEdd(${recordedDate}, ${eddDate}, ${lmpDate},${pregMonths})</t>
   </si>
   <si>
     <t>collected</t>
@@ -298,12 +298,18 @@
     <t>value</t>
   </si>
   <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Sim</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -394,13 +400,13 @@
     <t>form_name::pt</t>
   </si>
   <si>
-    <t>rawChangeHead</t>
-  </si>
-  <si>
-    <t>Change of Head of Household</t>
-  </si>
-  <si>
-    <t>Mudança do chefe do agregado</t>
+    <t>rawPregnancyRegistration</t>
+  </si>
+  <si>
+    <t>Pregnancy Registration</t>
+  </si>
+  <si>
+    <t>Registo de Gravidez</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -447,6 +453,120 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,9 +579,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,129 +593,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,187 +627,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,11 +821,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,11 +869,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,32 +899,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,162 +918,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,19 +1071,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1091,9 +1103,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1104,9 +1113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,8 +1429,8 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1434,11 +1440,12 @@
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="13" customWidth="1"/>
-    <col min="7" max="7" width="15.5619047619048" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="14" customWidth="1"/>
+    <col min="7" max="7" width="15.5619047619048" style="14" customWidth="1"/>
     <col min="8" max="8" width="72.0095238095238" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
-    <col min="10" max="11" width="14.6761904761905" customWidth="1"/>
+    <col min="10" max="10" width="14.6761904761905" customWidth="1"/>
+    <col min="11" max="11" width="23.9428571428571" customWidth="1"/>
     <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
     <col min="13" max="13" width="8.57142857142857" customWidth="1"/>
     <col min="14" max="14" width="46.4285714285714" style="1" customWidth="1"/>
@@ -1461,10 +1468,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1485,7 +1492,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1498,13 +1505,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -1518,19 +1525,21 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1544,7 +1553,7 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="13"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1562,8 +1571,8 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1572,7 +1581,9 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
@@ -1585,8 +1596,8 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1595,9 +1606,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="D6" t="s">
         <v>29</v>
       </c>
@@ -1610,8 +1619,8 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -1624,18 +1633,18 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -1648,7 +1657,7 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H8" t="s">
@@ -1657,8 +1666,8 @@
       <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1675,7 +1684,7 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H9" t="s">
@@ -1684,8 +1693,8 @@
       <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1708,8 +1717,8 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
       <c r="L10" t="b">
         <v>1</v>
       </c>
@@ -1725,18 +1734,18 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" t="s">
         <v>52</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1758,8 +1767,8 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
       <c r="L12" t="b">
         <v>1</v>
       </c>
@@ -1775,18 +1784,18 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" t="b">
         <v>1</v>
       </c>
@@ -1802,16 +1811,16 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
       <c r="H14" t="s">
         <v>62</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
       <c r="L14" t="b">
         <v>1</v>
       </c>
@@ -1827,16 +1836,16 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="H15" t="s">
         <v>66</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="17"/>
+      <c r="K15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="L15" t="b">
@@ -1848,7 +1857,7 @@
       <c r="N15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="17"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
@@ -1866,8 +1875,8 @@
       <c r="I16" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" t="b">
         <v>1</v>
       </c>
@@ -1891,8 +1900,8 @@
       <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
       <c r="L17" t="b">
         <v>1</v>
       </c>
@@ -1916,8 +1925,8 @@
       <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
       <c r="L18" t="b">
         <v>1</v>
       </c>
@@ -1927,23 +1936,23 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1"/>
@@ -1991,7 +2000,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2023,14 +2032,14 @@
       <c r="A2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -2038,312 +2047,312 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>0</v>
+      <c r="B3" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="7"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="6"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="6"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="6"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="9"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="9"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="9"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="10"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="9"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="9"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="9"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="9"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="9"/>
+      <c r="E47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2358,7 +2367,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -2370,24 +2379,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17730" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>options</t>
   </si>
   <si>
-    <t>foreach_count</t>
+    <t>repeat_count</t>
   </si>
   <si>
     <t>label</t>
@@ -414,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -457,7 +457,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,14 +489,91 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,52 +585,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -548,60 +594,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,19 +627,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,13 +717,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,19 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,121 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +818,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -832,15 +841,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,6 +884,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -901,17 +912,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -921,148 +921,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="9390" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="13155" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="28">
@@ -456,8 +456,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,24 +563,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -501,107 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -618,7 +618,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,25 +627,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,49 +789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,103 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,15 +824,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -845,15 +842,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -865,6 +853,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,11 +892,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,161 +916,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1087,6 +1093,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,6 +1116,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1429,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1440,8 +1454,8 @@
     <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15.5619047619048" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15.5619047619048" style="18" customWidth="1"/>
     <col min="8" max="8" width="72.0095238095238" customWidth="1"/>
     <col min="9" max="9" width="55" customWidth="1"/>
     <col min="10" max="10" width="14.6761904761905" customWidth="1"/>
@@ -1468,10 +1482,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1492,7 +1506,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -1505,13 +1519,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
@@ -1525,7 +1539,7 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
+      <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
@@ -1533,13 +1547,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -1553,7 +1567,7 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="14"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
@@ -1571,8 +1585,8 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
       <c r="L4" t="b">
         <v>1</v>
       </c>
@@ -1596,8 +1610,8 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
       <c r="L5" t="b">
         <v>1</v>
       </c>
@@ -1619,8 +1633,8 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
       <c r="L6" t="b">
         <v>1</v>
       </c>
@@ -1633,18 +1647,18 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="20"/>
       <c r="H7" t="s">
         <v>36</v>
       </c>
       <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" t="b">
         <v>1</v>
       </c>
@@ -1657,7 +1671,7 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H8" t="s">
@@ -1666,8 +1680,8 @@
       <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1684,7 +1698,7 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H9" t="s">
@@ -1693,8 +1707,8 @@
       <c r="I9" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1717,8 +1731,8 @@
       <c r="I10" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" t="b">
         <v>1</v>
       </c>
@@ -1734,18 +1748,18 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="20"/>
       <c r="H11" t="s">
         <v>52</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1767,8 +1781,8 @@
       <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
       <c r="L12" t="b">
         <v>1</v>
       </c>
@@ -1784,18 +1798,18 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="20"/>
       <c r="H13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
       <c r="L13" t="b">
         <v>1</v>
       </c>
@@ -1811,16 +1825,16 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" t="s">
         <v>62</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" t="b">
         <v>1</v>
       </c>
@@ -1836,16 +1850,16 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" t="s">
         <v>66</v>
       </c>
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21" t="s">
         <v>68</v>
       </c>
       <c r="L15" t="b">
@@ -1875,8 +1889,8 @@
       <c r="I16" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
       <c r="L16" t="b">
         <v>1</v>
       </c>
@@ -1900,8 +1914,8 @@
       <c r="I17" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
       <c r="L17" t="b">
         <v>1</v>
       </c>
@@ -1925,8 +1939,8 @@
       <c r="I18" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
       <c r="L18" t="b">
         <v>1</v>
       </c>
@@ -1936,23 +1950,23 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1"/>
@@ -2000,14 +2014,15 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
     <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2157,17 +2172,20 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
@@ -2183,176 +2201,176 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="9"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="11"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="11"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="11"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="11"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="11"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="12"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="11"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="11"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="11"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="11"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="11"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="13155" tabRatio="500"/>
+    <workbookView windowHeight="7350" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -414,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -465,9 +465,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -479,16 +547,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,105 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,73 +633,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,109 +777,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,6 +824,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -842,34 +884,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -890,182 +910,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,7 +1443,7 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2384,8 +2384,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="7350" tabRatio="500" activeTab="2"/>
+    <workbookView windowHeight="10920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>group</t>
   </si>
@@ -379,16 +379,25 @@
     <t>Currently Pregnant</t>
   </si>
   <si>
+    <t>Gravida</t>
+  </si>
+  <si>
     <t>DELIVERED</t>
   </si>
   <si>
     <t>Already Delivered</t>
   </si>
   <si>
+    <t>Ja deu parto</t>
+  </si>
+  <si>
     <t>LOST_TRACK</t>
   </si>
   <si>
     <t>Lost Track of Status</t>
+  </si>
+  <si>
+    <t>Estado desconhecido/perdido</t>
   </si>
   <si>
     <t>form_id</t>
@@ -465,7 +474,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,9 +512,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,113 +582,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,181 +648,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,11 +836,82 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,219 +933,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,7 +1453,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -2013,8 +2022,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -2170,19 +2179,23 @@
       <c r="C10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="E11" s="17" t="b">
         <v>1</v>
       </c>
@@ -2192,12 +2205,14 @@
         <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7"/>
@@ -2384,7 +2399,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2397,24 +2412,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="10920" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="17670" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t>paul:</t>
         </r>
@@ -36,7 +36,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 The option is readonly, not choosable.
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
   <si>
     <t>group</t>
   </si>
@@ -79,6 +79,9 @@
     <t>label::pt</t>
   </si>
   <si>
+    <t>label::fr</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -112,13 +115,22 @@
     <t>1.0. Código da Visita</t>
   </si>
   <si>
+    <t>1.0. Code de la visite</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>1.1. Pregnancy Registration Code</t>
   </si>
   <si>
-    <t>1.1. Código do Registro de Gravidez</t>
+    <t>1.1. Código do Registo de Gravidez</t>
+  </si>
+  <si>
+    <t>1.1. Code d'enregistrement de la grossesse</t>
+  </si>
+  <si>
+    <t>header2</t>
   </si>
   <si>
     <t>motherCode</t>
@@ -127,7 +139,10 @@
     <t>2.1. Mother's Code</t>
   </si>
   <si>
-    <t>2.1. Códido da Mãe</t>
+    <t>2.1. Código da Mãe</t>
+  </si>
+  <si>
+    <t>2.1. Code de la mère</t>
   </si>
   <si>
     <t>motherName</t>
@@ -139,6 +154,9 @@
     <t>2.2. Nome da Mãe</t>
   </si>
   <si>
+    <t>2.2. Le nom de la mère</t>
+  </si>
+  <si>
     <t>recordedDate</t>
   </si>
   <si>
@@ -148,7 +166,10 @@
     <t>3.1. Recorded Date</t>
   </si>
   <si>
-    <t>3.1. Data do registro da gravidez</t>
+    <t>3.1. Data do registo da gravidez</t>
+  </si>
+  <si>
+    <t>3.1. Date d'enregistrement de la grossesse</t>
   </si>
   <si>
     <t>status</t>
@@ -166,6 +187,9 @@
     <t>3.2. Estado da gravidez</t>
   </si>
   <si>
+    <t>3.2. État de grossesse</t>
+  </si>
+  <si>
     <t>eddKnown</t>
   </si>
   <si>
@@ -178,6 +202,9 @@
     <t>4.1. Conhece a data provável do parto?</t>
   </si>
   <si>
+    <t>4.1. Connaissez-vous la date probable d' accouchement?</t>
+  </si>
+  <si>
     <t>${status}='PREGNANT'</t>
   </si>
   <si>
@@ -190,6 +217,9 @@
     <t>4.2. A mulher abriu a ficha pré-natal?</t>
   </si>
   <si>
+    <t>4.2. La femme a-t-elle ouvert le dossier prénatal?</t>
+  </si>
+  <si>
     <t>${status}='PREGNANT' and ${eddKnown}='TRUE'</t>
   </si>
   <si>
@@ -202,6 +232,9 @@
     <t>4.3. Data provável do parto</t>
   </si>
   <si>
+    <t>4.3. Date probable d'accouchement</t>
+  </si>
+  <si>
     <t>eddType</t>
   </si>
   <si>
@@ -211,7 +244,10 @@
     <t>4.3.1. How was this estimated date of delivery determined?</t>
   </si>
   <si>
-    <t>4.3.1. Como é que a data provavel do parto foi determinada?</t>
+    <t>4.3.1. Como é que a data provável do parto foi determinada?</t>
+  </si>
+  <si>
+    <t>4.3.1. Comment la date probable d'accouchement a-t-elle été déterminée?</t>
   </si>
   <si>
     <t>pregMonths</t>
@@ -226,6 +262,9 @@
     <t>4.3.2. Número aproximado de meses da gravidez?</t>
   </si>
   <si>
+    <t>4.3.2. Nombre approximatif de mois de grossesse?</t>
+  </si>
+  <si>
     <t>lmpKnown</t>
   </si>
   <si>
@@ -235,13 +274,19 @@
     <t>4.4. Conhece a data em que iniciou a sua última menstruação?</t>
   </si>
   <si>
+    <t>4.4. Connaissez-vous la date du début de vos dernières règles?</t>
+  </si>
+  <si>
     <t>lmpDate</t>
   </si>
   <si>
     <t>4.4.1. Date of last menstrual period</t>
   </si>
   <si>
-    <t>4.4.1. Data em que iniciou a ultima menstruação</t>
+    <t>4.4.1. Data em que iniciou a última menstruação</t>
+  </si>
+  <si>
+    <t>4.4.1. Date du début des dernières règles</t>
   </si>
   <si>
     <t>${status}='PREGNANT' and ${lmpKnown}='TRUE'</t>
@@ -253,7 +298,10 @@
     <t>5. Calculated Expected Delivery Date</t>
   </si>
   <si>
-    <t>5. Data provável do parto pre-calculada</t>
+    <t>5. Data provável do parto pré-calculada</t>
+  </si>
+  <si>
+    <t>5. Date probable d'accouchement pré-calculée</t>
   </si>
   <si>
     <t>call:calculateEdd(${recordedDate}, ${eddDate}, ${lmpDate},${pregMonths})</t>
@@ -271,7 +319,10 @@
     <t>6.1. Collected By Fieldworker</t>
   </si>
   <si>
-    <t>6.1. Códido do Inquiridor</t>
+    <t>6.1. Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>6.1. Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -286,6 +337,9 @@
     <t>6.2. Data da Visita</t>
   </si>
   <si>
+    <t>6.2. Date de la visite</t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -295,6 +349,9 @@
     <t>Acesso permitido aos Módulos</t>
   </si>
   <si>
+    <t>Accès aux modules autorisé</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -307,6 +364,9 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>Oui</t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -316,6 +376,9 @@
     <t>Não</t>
   </si>
   <si>
+    <t>Non</t>
+  </si>
+  <si>
     <t>genders</t>
   </si>
   <si>
@@ -328,6 +391,9 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>Masculin</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -337,6 +403,9 @@
     <t>Feminino</t>
   </si>
   <si>
+    <t>Féminin</t>
+  </si>
+  <si>
     <t>ULTRASOUND</t>
   </si>
   <si>
@@ -346,6 +415,9 @@
     <t>Ecografia (ultra-som)</t>
   </si>
   <si>
+    <t>Échographie (Ultrasons)</t>
+  </si>
+  <si>
     <t>LMP</t>
   </si>
   <si>
@@ -355,6 +427,9 @@
     <t xml:space="preserve">Data da última menstruação (DUM) </t>
   </si>
   <si>
+    <t>Date de la dernière période menstruelle (DUM)</t>
+  </si>
+  <si>
     <t>SFH</t>
   </si>
   <si>
@@ -364,22 +439,31 @@
     <t xml:space="preserve">Altura do fundo uterino (AFU) </t>
   </si>
   <si>
+    <t xml:space="preserve">Hauteur du fond utérin (FFA) </t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
-    <t>Don't Know</t>
+    <t>Don't know</t>
   </si>
   <si>
     <t>Não sabe</t>
   </si>
   <si>
+    <t>Ne sait pas</t>
+  </si>
+  <si>
     <t>PREGNANT</t>
   </si>
   <si>
     <t>Currently Pregnant</t>
   </si>
   <si>
-    <t>Gravida</t>
+    <t>Grávida</t>
+  </si>
+  <si>
+    <t>Enceinte</t>
   </si>
   <si>
     <t>DELIVERED</t>
@@ -388,7 +472,10 @@
     <t>Already Delivered</t>
   </si>
   <si>
-    <t>Ja deu parto</t>
+    <t>Já deu à luz</t>
+  </si>
+  <si>
+    <t>A déjà accouché</t>
   </si>
   <si>
     <t>LOST_TRACK</t>
@@ -400,6 +487,9 @@
     <t>Estado desconhecido/perdido</t>
   </si>
   <si>
+    <t>État inconnu/perdu</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -409,6 +499,9 @@
     <t>form_name::pt</t>
   </si>
   <si>
+    <t>form_name::fr</t>
+  </si>
+  <si>
     <t>rawPregnancyRegistration</t>
   </si>
   <si>
@@ -416,6 +509,9 @@
   </si>
   <si>
     <t>Registo de Gravidez</t>
+  </si>
+  <si>
+    <t>Registre de Grossesse</t>
   </si>
 </sst>
 </file>
@@ -423,12 +519,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -438,16 +534,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -462,14 +553,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,24 +578,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,26 +594,17 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,15 +626,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,6 +642,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,10 +669,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,18 +699,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,7 +727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,31 +751,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,149 +919,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -847,6 +959,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,35 +1004,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,204 +1048,209 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1450,32 +1567,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.9142857142857" customWidth="1"/>
-    <col min="2" max="2" width="11.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="12.5714285714286" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15.5619047619048" style="18" customWidth="1"/>
-    <col min="8" max="8" width="72.0095238095238" customWidth="1"/>
-    <col min="9" max="9" width="55" customWidth="1"/>
-    <col min="10" max="10" width="14.6761904761905" customWidth="1"/>
-    <col min="11" max="11" width="23.9428571428571" customWidth="1"/>
-    <col min="12" max="12" width="8.14285714285714" customWidth="1"/>
-    <col min="13" max="13" width="8.57142857142857" customWidth="1"/>
-    <col min="14" max="14" width="46.4285714285714" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.8190476190476" customWidth="1"/>
+    <col min="2" max="2" width="11.1809523809524" customWidth="1"/>
+    <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
+    <col min="5" max="5" width="10.2666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.5428571428571" style="21" customWidth="1"/>
+    <col min="7" max="7" width="15.5428571428571" style="21" customWidth="1"/>
+    <col min="8" max="8" width="72" customWidth="1"/>
+    <col min="9" max="10" width="55" customWidth="1"/>
+    <col min="11" max="11" width="14.7238095238095" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="8.18095238095238" customWidth="1"/>
+    <col min="14" max="14" width="8.54285714285714" customWidth="1"/>
+    <col min="15" max="15" width="46.4571428571429" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,10 +1608,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1503,7 +1620,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1515,467 +1632,514 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>18</v>
       </c>
+      <c r="H2" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L2" s="1"/>
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="18"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>21</v>
+      <c r="D3" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" t="b">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" t="b">
+        <v>44</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" t="b">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" t="b">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:14">
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:15">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" t="b">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" t="b">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" t="b">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="20"/>
+        <v>41</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" t="b">
+        <v>73</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+        <v>36</v>
+      </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" t="b">
+        <v>77</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:15">
+      <c r="O14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+        <v>36</v>
+      </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1"/>
@@ -2020,27 +2184,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.8571428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="13.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.8190476190476" customWidth="1"/>
+    <col min="4" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2048,344 +2212,394 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="17" t="b">
+      <c r="E4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="39" spans="5:5">
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="5:5">
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="5:5">
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="5:5">
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="5:5">
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="5:5">
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="5:5">
-      <c r="E47" s="14"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2397,39 +2611,46 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="28.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="29.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
+    <col min="3" max="3" width="29.7238095238095" customWidth="1"/>
+    <col min="4" max="4" width="32.0857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>152</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17670" tabRatio="500"/>
+    <workbookView xWindow="18420" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
   <si>
     <t>group</t>
   </si>
@@ -100,6 +100,9 @@
     <t>display_style</t>
   </si>
   <si>
+    <t>hidden</t>
+  </si>
+  <si>
     <t>header</t>
   </si>
   <si>
@@ -338,6 +341,27 @@
   </si>
   <si>
     <t>6.2. Date de la visite</t>
+  </si>
+  <si>
+    <t>collectedDeviceId</t>
+  </si>
+  <si>
+    <t>device_id</t>
+  </si>
+  <si>
+    <t>Device Id</t>
+  </si>
+  <si>
+    <t>collectedHouseholdId</t>
+  </si>
+  <si>
+    <t>Collected Household Id</t>
+  </si>
+  <si>
+    <t>collectedMemberId</t>
+  </si>
+  <si>
+    <t>Collected Member Id</t>
   </si>
   <si>
     <t>modules</t>
@@ -519,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -556,6 +580,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -564,40 +596,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,9 +625,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +641,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,15 +693,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,31 +723,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,13 +763,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +835,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,157 +919,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,28 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,9 +1037,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,160 +1064,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1249,10 +1273,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,10 +1602,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1592,7 +1627,7 @@
     <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1655,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1638,30 +1673,33 @@
       <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1675,24 +1713,24 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1706,25 +1744,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+        <v>31</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1734,25 +1772,25 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1763,22 +1801,22 @@
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1786,25 +1824,25 @@
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1812,220 +1850,220 @@
     <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="13" customHeight="1" spans="1:15">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24" t="s">
         <v>84</v>
       </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
@@ -2033,31 +2071,31 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="M16" t="b">
         <v>1</v>
       </c>
@@ -2067,25 +2105,25 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
       <c r="M17" t="b">
         <v>1</v>
       </c>
@@ -2093,62 +2131,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
+    <row r="18" spans="1:17">
+      <c r="A18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="I18" t="s">
+      <c r="E18" s="24" t="s">
         <v>98</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>
@@ -2173,6 +2307,15 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
@@ -2204,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2221,177 +2364,177 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F11" s="20" t="b">
         <v>1</v>
@@ -2399,19 +2542,19 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2627,30 +2770,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="18420" windowWidth="9210" windowHeight="6465" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -298,13 +298,13 @@
     <t>expectedDeliveryDate</t>
   </si>
   <si>
-    <t>5. Calculated Expected Delivery Date</t>
-  </si>
-  <si>
-    <t>5. Data provável do parto pré-calculada</t>
-  </si>
-  <si>
-    <t>5. Date probable d'accouchement pré-calculée</t>
+    <t>4.5. Calculated Expected Delivery Date</t>
+  </si>
+  <si>
+    <t>4.5. Data provável do parto pré-calculada</t>
+  </si>
+  <si>
+    <t>4.5. Date probable d'accouchement pré-calculée</t>
   </si>
   <si>
     <t>call:calculateEdd(${recordedDate}, ${eddDate}, ${lmpDate},${pregMonths})</t>
@@ -319,13 +319,13 @@
     <t>username</t>
   </si>
   <si>
-    <t>6.1. Collected By Fieldworker</t>
-  </si>
-  <si>
-    <t>6.1. Código do Inquiridor</t>
-  </si>
-  <si>
-    <t>6.1. Code de l'enquêteur</t>
+    <t>Collected By Fieldworker</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>Code de l'enquêteur</t>
   </si>
   <si>
     <t>collectedDate</t>
@@ -334,13 +334,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>6.2. Collected Date</t>
-  </si>
-  <si>
-    <t>6.2. Data da Visita</t>
-  </si>
-  <si>
-    <t>6.2. Date de la visite</t>
+    <t>Collected Date</t>
+  </si>
+  <si>
+    <t>Data da Visita</t>
+  </si>
+  <si>
+    <t>Date de la visite</t>
   </si>
   <si>
     <t>collectedDeviceId</t>
@@ -543,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -580,9 +580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,16 +596,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -619,21 +643,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,14 +651,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -664,7 +666,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,44 +674,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,9 +688,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,31 +763,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,73 +937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,80 +947,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -972,27 +972,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1007,15 +1045,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,10 +1066,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1063,6 +1090,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1072,152 +1134,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1267,26 +1329,53 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1605,7 +1694,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M20"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1615,12 +1704,12 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
     <col min="5" max="5" width="10.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.5428571428571" style="21" customWidth="1"/>
-    <col min="7" max="7" width="15.5428571428571" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.5428571428571" style="23" customWidth="1"/>
+    <col min="7" max="7" width="15.5428571428571" style="23" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
     <col min="9" max="10" width="55" customWidth="1"/>
     <col min="11" max="11" width="14.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="12" max="12" width="69.2857142857143" customWidth="1"/>
     <col min="13" max="13" width="8.18095238095238" customWidth="1"/>
     <col min="14" max="14" width="8.54285714285714" customWidth="1"/>
     <col min="15" max="15" width="46.4571428571429" style="1" customWidth="1"/>
@@ -1643,10 +1732,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1655,7 +1744,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1670,13 +1759,13 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1686,13 +1775,13 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -1709,7 +1798,7 @@
       <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="21"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
@@ -1717,13 +1806,13 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
@@ -1740,7 +1829,7 @@
       <c r="N3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="21"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
@@ -1761,8 +1850,8 @@
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -1789,8 +1878,8 @@
       <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -1815,8 +1904,8 @@
       <c r="J6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -1829,7 +1918,7 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
@@ -1841,8 +1930,8 @@
       <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -1855,7 +1944,7 @@
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H8" t="s">
@@ -1867,8 +1956,8 @@
       <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -1885,7 +1974,7 @@
       <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H9" t="s">
@@ -1897,8 +1986,8 @@
       <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
       <c r="M9" t="b">
         <v>1</v>
       </c>
@@ -1924,8 +2013,8 @@
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
       <c r="M10" t="b">
         <v>1</v>
       </c>
@@ -1941,7 +2030,7 @@
       <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H11" t="s">
@@ -1953,8 +2042,8 @@
       <c r="J11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
       <c r="M11" t="b">
         <v>1</v>
       </c>
@@ -1979,8 +2068,8 @@
       <c r="J12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
       <c r="M12" t="b">
         <v>1</v>
       </c>
@@ -1996,7 +2085,7 @@
       <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H13" t="s">
@@ -2008,8 +2097,8 @@
       <c r="J13" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
       <c r="M13" t="b">
         <v>1</v>
       </c>
@@ -2034,8 +2123,8 @@
       <c r="J14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" t="b">
         <v>1</v>
       </c>
@@ -2057,11 +2146,11 @@
       <c r="I15" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26" t="s">
+      <c r="K15" s="34"/>
+      <c r="L15" s="34" t="s">
         <v>85</v>
       </c>
       <c r="M15" t="b">
@@ -2075,214 +2164,231 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="21" customFormat="1" spans="1:17">
+      <c r="A16" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="26" t="s">
         <v>90</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H17" t="s">
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="28" t="s">
         <v>99</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="24" t="b">
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="28"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="28" t="s">
         <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24" t="b">
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="28" t="s">
         <v>103</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="22" customFormat="1" spans="1:15">
+      <c r="A21" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="22" t="s">
         <v>106</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12270" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -595,8 +595,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,7 +634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,7 +649,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,16 +664,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,34 +679,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -709,6 +708,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -716,16 +716,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,187 +763,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1034,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1064,15 +1073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1095,15 +1095,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,145 +1122,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1693,8 +1693,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -259,37 +259,37 @@
     <t>integer</t>
   </si>
   <si>
-    <t>4.3.2. Approximately how many completed months has the woman been pregnant?</t>
-  </si>
-  <si>
-    <t>4.3.2. Número aproximado de meses da gravidez?</t>
-  </si>
-  <si>
-    <t>4.3.2. Nombre approximatif de mois de grossesse?</t>
+    <t>4.4. Approximately how many completed months has the woman been pregnant?</t>
+  </si>
+  <si>
+    <t>4.4. Número aproximado de meses da gravidez?</t>
+  </si>
+  <si>
+    <t>4.4. Nombre approximatif de mois de grossesse?</t>
   </si>
   <si>
     <t>lmpKnown</t>
   </si>
   <si>
-    <t>4.4. Is the date of start of the last menstrual period known?</t>
-  </si>
-  <si>
-    <t>4.4. Conhece a data em que iniciou a sua última menstruação?</t>
-  </si>
-  <si>
-    <t>4.4. Connaissez-vous la date du début de vos dernières règles?</t>
+    <t>4.5. Is the date of start of the last menstrual period known?</t>
+  </si>
+  <si>
+    <t>4.5. Conhece a data em que iniciou a sua última menstruação?</t>
+  </si>
+  <si>
+    <t>4.5. Connaissez-vous la date du début de vos dernières règles?</t>
   </si>
   <si>
     <t>lmpDate</t>
   </si>
   <si>
-    <t>4.4.1. Date of last menstrual period</t>
-  </si>
-  <si>
-    <t>4.4.1. Data em que iniciou a última menstruação</t>
-  </si>
-  <si>
-    <t>4.4.1. Date du début des dernières règles</t>
+    <t>4.5.1. Date of last menstrual period</t>
+  </si>
+  <si>
+    <t>4.5.1. Data em que iniciou a última menstruação</t>
+  </si>
+  <si>
+    <t>4.5.1. Date du début des dernières règles</t>
   </si>
   <si>
     <t>${status}='PREGNANT' and ${lmpKnown}='TRUE'</t>
@@ -298,13 +298,13 @@
     <t>expectedDeliveryDate</t>
   </si>
   <si>
-    <t>4.5. Calculated Expected Delivery Date</t>
-  </si>
-  <si>
-    <t>4.5. Data provável do parto pré-calculada</t>
-  </si>
-  <si>
-    <t>4.5. Date probable d'accouchement pré-calculée</t>
+    <t>4.6. Calculated Expected Delivery Date</t>
+  </si>
+  <si>
+    <t>4.6. Data provável do parto pré-calculada</t>
+  </si>
+  <si>
+    <t>4.6. Date probable d'accouchement pré-calculée</t>
   </si>
   <si>
     <t>call:calculateEdd(${recordedDate}, ${eddDate}, ${lmpDate},${pregMonths})</t>
@@ -543,10 +543,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -580,9 +580,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,7 +626,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -604,7 +634,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,28 +670,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -655,27 +678,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,15 +707,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,22 +717,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,187 +763,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,15 +1034,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1054,47 +1045,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,8 +1067,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,151 +1096,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1693,8 +1693,8 @@
   <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>

--- a/app/src/main/res/raw/pregnancy_registration_form.xlsx
+++ b/app/src/main/res/raw/pregnancy_registration_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500"/>
+    <workbookView windowWidth="27795" windowHeight="12195" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="columns" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>paul</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="196">
   <si>
     <t>group</t>
   </si>
@@ -82,6 +82,9 @@
     <t>label::fr</t>
   </si>
   <si>
+    <t>label::am</t>
+  </si>
+  <si>
     <t>default_value</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>1.0. Code de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">1.0. የጉብኝት ኮድ  </t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1.1. Code d'enregistrement de la grossesse</t>
   </si>
   <si>
+    <t xml:space="preserve">1.1. የእርግዝና ምዝገባ ኮድ  </t>
+  </si>
+  <si>
     <t>header2</t>
   </si>
   <si>
@@ -148,6 +157,9 @@
     <t>2.1. Code de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1. የእናቱ ኮድ  </t>
+  </si>
+  <si>
     <t>motherName</t>
   </si>
   <si>
@@ -160,6 +172,9 @@
     <t>2.2. Le nom de la mère</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2. የእናቱ ስም  </t>
+  </si>
+  <si>
     <t>recordedDate</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>3.1. Date d'enregistrement de la grossesse</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1. የተመዘገበበት ቀን  </t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
@@ -193,6 +211,9 @@
     <t>3.2. État de grossesse</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. የእርግዝና ሁኔታ  </t>
+  </si>
+  <si>
     <t>eddKnown</t>
   </si>
   <si>
@@ -208,6 +229,9 @@
     <t>4.1. Connaissez-vous la date probable d' accouchement?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.1. የተገመተው የውል ቀን ይታወቃል?  </t>
+  </si>
+  <si>
     <t>${status}='PREGNANT'</t>
   </si>
   <si>
@@ -223,6 +247,9 @@
     <t>4.2. La femme a-t-elle ouvert le dossier prénatal?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.2. ሴቲቱ የእርግዝና መዝገብ ከፈተችው?  </t>
+  </si>
+  <si>
     <t>${status}='PREGNANT' and ${eddKnown}='TRUE'</t>
   </si>
   <si>
@@ -238,6 +265,9 @@
     <t>4.3. Date probable d'accouchement</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3. የተገመተው የውል ቀን  </t>
+  </si>
+  <si>
     <t>eddType</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>4.3.1. Comment la date probable d'accouchement a-t-elle été déterminée?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.3.1. ይህ የተገመተው የውል ቀን እንዴት ተወስኗል?  </t>
+  </si>
+  <si>
     <t>pregMonths</t>
   </si>
   <si>
@@ -268,6 +301,9 @@
     <t>4.4. Nombre approximatif de mois de grossesse?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.4. ሴቲቱ በእርግዝና ያለችበት የተሟላ ወር በቅርብ ምን ነው?  </t>
+  </si>
+  <si>
     <t>lmpKnown</t>
   </si>
   <si>
@@ -280,6 +316,9 @@
     <t>4.5. Connaissez-vous la date du début de vos dernières règles?</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5. የመጨረሻ የወለል ወርና ቀን ይታወቃል?  </t>
+  </si>
+  <si>
     <t>lmpDate</t>
   </si>
   <si>
@@ -292,6 +331,9 @@
     <t>4.5.1. Date du début des dernières règles</t>
   </si>
   <si>
+    <t xml:space="preserve">4.5.1. የመጨረሻ የወለል ቀን  </t>
+  </si>
+  <si>
     <t>${status}='PREGNANT' and ${lmpKnown}='TRUE'</t>
   </si>
   <si>
@@ -307,6 +349,9 @@
     <t>4.6. Date probable d'accouchement pré-calculée</t>
   </si>
   <si>
+    <t xml:space="preserve">4.6. የተቆጠረው ተጠባባቂ የውል ቀን  </t>
+  </si>
+  <si>
     <t>call:calculateEdd(${recordedDate}, ${eddDate}, ${lmpDate},${pregMonths})</t>
   </si>
   <si>
@@ -328,6 +373,9 @@
     <t>Code de l'enquêteur</t>
   </si>
   <si>
+    <t xml:space="preserve">በመረጃ ባለሞያ ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDate</t>
   </si>
   <si>
@@ -343,6 +391,9 @@
     <t>Date de la visite</t>
   </si>
   <si>
+    <t xml:space="preserve">ቀን ተከሰተ  </t>
+  </si>
+  <si>
     <t>collectedDeviceId</t>
   </si>
   <si>
@@ -352,18 +403,27 @@
     <t>Device Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የመሳሪያ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedHouseholdId</t>
   </si>
   <si>
     <t>Collected Household Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የቤተሰብ መታወቂያ  </t>
+  </si>
+  <si>
     <t>collectedMemberId</t>
   </si>
   <si>
     <t>Collected Member Id</t>
   </si>
   <si>
+    <t xml:space="preserve">የተከሰተው የአባል መታወቂያ  </t>
+  </si>
+  <si>
     <t>modules</t>
   </si>
   <si>
@@ -376,6 +436,9 @@
     <t>Accès aux modules autorisé</t>
   </si>
   <si>
+    <t>ለመድረሻዎች የተፈቀደ መዳረሻ</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -391,6 +454,9 @@
     <t>Oui</t>
   </si>
   <si>
+    <t xml:space="preserve">አዎን  </t>
+  </si>
+  <si>
     <t>FALSE</t>
   </si>
   <si>
@@ -403,6 +469,9 @@
     <t>Non</t>
   </si>
   <si>
+    <t xml:space="preserve">አይ  </t>
+  </si>
+  <si>
     <t>genders</t>
   </si>
   <si>
@@ -418,6 +487,9 @@
     <t>Masculin</t>
   </si>
   <si>
+    <t xml:space="preserve">ወንድ  </t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
@@ -430,6 +502,9 @@
     <t>Féminin</t>
   </si>
   <si>
+    <t xml:space="preserve">ሴት  </t>
+  </si>
+  <si>
     <t>ULTRASOUND</t>
   </si>
   <si>
@@ -442,6 +517,9 @@
     <t>Échographie (Ultrasons)</t>
   </si>
   <si>
+    <t xml:space="preserve">አልትራሳውንድ  </t>
+  </si>
+  <si>
     <t>LMP</t>
   </si>
   <si>
@@ -454,6 +532,9 @@
     <t>Date de la dernière période menstruelle (DUM)</t>
   </si>
   <si>
+    <t xml:space="preserve">የመጨረሻ የወለል ወርና ቀን  </t>
+  </si>
+  <si>
     <t>SFH</t>
   </si>
   <si>
@@ -466,6 +547,9 @@
     <t xml:space="preserve">Hauteur du fond utérin (FFA) </t>
   </si>
   <si>
+    <t xml:space="preserve">የስምፊሲስ ፈንዳል እርዝመት  </t>
+  </si>
+  <si>
     <t>DONT_KNOW</t>
   </si>
   <si>
@@ -478,6 +562,9 @@
     <t>Ne sait pas</t>
   </si>
   <si>
+    <t xml:space="preserve">አያውቅም  </t>
+  </si>
+  <si>
     <t>PREGNANT</t>
   </si>
   <si>
@@ -490,6 +577,9 @@
     <t>Enceinte</t>
   </si>
   <si>
+    <t xml:space="preserve">በአሁኑ ጊዜ እርግዝና ያለባት  </t>
+  </si>
+  <si>
     <t>DELIVERED</t>
   </si>
   <si>
@@ -502,6 +592,9 @@
     <t>A déjà accouché</t>
   </si>
   <si>
+    <t xml:space="preserve">አስቀድሞ ወለደች  </t>
+  </si>
+  <si>
     <t>LOST_TRACK</t>
   </si>
   <si>
@@ -514,6 +607,9 @@
     <t>État inconnu/perdu</t>
   </si>
   <si>
+    <t>የእርግዝናዋን ሁኔታ ማጣት</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -526,6 +622,9 @@
     <t>form_name::fr</t>
   </si>
   <si>
+    <t>form_name::am</t>
+  </si>
+  <si>
     <t>rawPregnancyRegistration</t>
   </si>
   <si>
@@ -536,6 +635,9 @@
   </si>
   <si>
     <t>Registre de Grossesse</t>
+  </si>
+  <si>
+    <t>የእርግዝና ምዝገባ</t>
   </si>
 </sst>
 </file>
@@ -543,10 +645,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -581,7 +683,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,47 +712,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,17 +729,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,39 +788,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -723,9 +818,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -751,13 +853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,19 +877,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,25 +1021,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,127 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,6 +1136,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1068,7 +1179,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1091,8 +1202,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,15 +1225,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1134,157 +1236,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1301,13 +1404,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1324,58 +1427,84 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1691,10 +1820,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1704,19 +1833,21 @@
     <col min="3" max="3" width="14.1809523809524" customWidth="1"/>
     <col min="4" max="4" width="20.1809523809524" customWidth="1"/>
     <col min="5" max="5" width="10.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="12.5428571428571" style="23" customWidth="1"/>
-    <col min="7" max="7" width="15.5428571428571" style="23" customWidth="1"/>
+    <col min="6" max="6" width="12.5428571428571" style="30" customWidth="1"/>
+    <col min="7" max="7" width="15.5428571428571" style="30" customWidth="1"/>
     <col min="8" max="8" width="72" customWidth="1"/>
-    <col min="9" max="10" width="55" customWidth="1"/>
-    <col min="11" max="11" width="14.7238095238095" customWidth="1"/>
-    <col min="12" max="12" width="69.2857142857143" customWidth="1"/>
-    <col min="13" max="13" width="8.18095238095238" customWidth="1"/>
-    <col min="14" max="14" width="8.54285714285714" customWidth="1"/>
-    <col min="15" max="15" width="46.4571428571429" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.4571428571429" customWidth="1"/>
+    <col min="9" max="9" width="55" customWidth="1"/>
+    <col min="10" max="10" width="61.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="46.4285714285714" customWidth="1"/>
+    <col min="12" max="12" width="14.7238095238095" customWidth="1"/>
+    <col min="13" max="13" width="69.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="8.18095238095238" customWidth="1"/>
+    <col min="15" max="15" width="8.54285714285714" customWidth="1"/>
+    <col min="16" max="16" width="46.4571428571429" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,10 +1863,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1744,7 +1875,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="39" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1759,636 +1890,703 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="30" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="23"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>24</v>
+      <c r="D3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="30"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
       <c r="N5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1"/>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1"/>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="23" t="s">
         <v>48</v>
       </c>
+      <c r="F8" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>57</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="23" t="s">
         <v>48</v>
       </c>
+      <c r="F9" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" ht="13" customHeight="1" spans="1:15">
+        <v>63</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="13" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>69</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="23" t="s">
         <v>48</v>
       </c>
+      <c r="F13" s="30" t="s">
+        <v>55</v>
+      </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>86</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="1:16">
+        <v>91</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="1:17">
       <c r="A15" s="1"/>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41" t="s">
+        <v>100</v>
       </c>
       <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" s="21" customFormat="1" spans="1:17">
-      <c r="A16" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28" t="s">
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" s="28" customFormat="1" spans="1:18">
+      <c r="A16" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" s="22" customFormat="1" spans="1:15">
-      <c r="A21" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="42"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="29" customFormat="1" spans="1:16">
+      <c r="A21" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="52"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1"/>
@@ -2433,27 +2631,29 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="25.8190476190476" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.8190476190476" customWidth="1"/>
-    <col min="4" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="13.1809523809524" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="39.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="37.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -2461,394 +2661,453 @@
       <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>113</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="19" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="E3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F3" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="B4" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E4" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="F5" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="D6" s="5" t="s">
         <v>153</v>
       </c>
+      <c r="E6" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="8"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="15"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="15"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="15"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+    </row>
+    <row r="41" spans="6:7">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2860,47 +3119,57 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.18095238095238" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.7238095238095" customWidth="1"/>
+    <col min="1" max="1" width="26.1904761904762" customWidth="1"/>
     <col min="2" max="2" width="28.2666666666667" customWidth="1"/>
     <col min="3" max="3" width="29.7238095238095" customWidth="1"/>
-    <col min="4" max="4" width="32.0857142857143" customWidth="1"/>
+    <col min="4" max="4" width="21.8952380952381" customWidth="1"/>
+    <col min="5" max="5" width="24.7619047619048" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4">
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
